--- a/Symal/23346/NEL-CNT-SDC-2990-PQA-ITP-0074_0_RES.xlsx
+++ b/Symal/23346/NEL-CNT-SDC-2990-PQA-ITP-0074_0_RES.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\23346\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1291D825-8A0A-41F2-BEC3-DEE6606611AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D512B7F-EA15-4497-8B35-F9FCFDA48674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="465" windowWidth="28830" windowHeight="20385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1215" windowWidth="28830" windowHeight="20385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$353</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="179">
   <si>
     <t>type</t>
   </si>
@@ -67,40 +67,499 @@
     <t>1.0 Preliminaries (Include all aspects of Materials, Approvals, IFC Drawings, etc. Ensure all required permits have been raised prior to commencing works)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resp. Person - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specification Reference - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Method - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Frequency - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspection/Verification (Name, signature &amp; date): Spark NEL Engineer - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspection/Verification (Name, signature &amp; date): Sub-Contractor - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspection/Verification (Name, signature &amp; date): Nominated Authority - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspection/Verification (Name, signature &amp; date): IREA - </t>
-  </si>
-  <si>
     <t xml:space="preserve">Records/Documents - </t>
   </si>
   <si>
     <t>NEL-CNT-SDC-2990-PQA-ITP-0074 Rev 0 - General Concrete (Footpath, Driveway, Median / Island Pavement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0 Operations (Include Work Execution – Installation / Manufacturing Process step-by-step) </t>
+  </si>
+  <si>
+    <t>3.0 Post Operations (Include Inspection and Testing)</t>
+  </si>
+  <si>
+    <t>4.0 Quality</t>
+  </si>
+  <si>
+    <t>1.1 - IFC Drawings issued</t>
+  </si>
+  <si>
+    <t>Resp. Person - PE</t>
+  </si>
+  <si>
+    <t>Specification Reference - IFC Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - IFC Drawings, approved plans, technical specification must be issued for construction</t>
+  </si>
+  <si>
+    <t>Test Method - V</t>
+  </si>
+  <si>
+    <t>Test Frequency - PW</t>
+  </si>
+  <si>
+    <t>Inspection/Verification (Name, signature &amp; date): Sub-Contractor - NR</t>
+  </si>
+  <si>
+    <t>Inspection/Verification (Name, signature &amp; date): Spark NEL Engineer - HP</t>
+  </si>
+  <si>
+    <t>Inspection/Verification (Name, signature &amp; date): Nominated Authority - NR</t>
+  </si>
+  <si>
+    <t>Inspection/Verification (Name, signature &amp; date): IREA - NR</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>• InEight Reference Document #</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>1.2 - All Equipment Calibrated</t>
+  </si>
+  <si>
+    <t>Specification Reference - QMP</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Equipment calibration NATA certificates filed in InEight Document.</t>
+  </si>
+  <si>
+    <t>• Prior performing inspections, measuring and testing tasks, ensure equipment is calibrated, if damaged or out of calibration, the user will immediately tag it “out of service” and arrange for repairs / calibration.</t>
+  </si>
+  <si>
+    <t>Test Method - IP</t>
+  </si>
+  <si>
+    <t>1.3 - Premixed Concrete</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.05 IFC Drawing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Concrete / Footpath Pavement Material to be in accordance with design requirements</t>
+  </si>
+  <si>
+    <t>Test Method - R</t>
+  </si>
+  <si>
+    <t>Inspection/Verification (Name, signature &amp; date): Spark NEL Engineer - WP</t>
+  </si>
+  <si>
+    <t>Records/Documents - Concrete Mix Design</t>
+  </si>
+  <si>
+    <t>1.4 - Survey Set-out</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.17 IFC Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Clearly mark limit of works; Chainage, offsets, cut/fill level etc. (if required).</t>
+  </si>
+  <si>
+    <t>• Lot Map</t>
+  </si>
+  <si>
+    <t>• InEight Document References:</t>
+  </si>
+  <si>
+    <t>1.5 - Construction Procedure Submission</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Construction Procedure submitted and in place and all required permits from the Safety and Environmental team are obtained.</t>
+  </si>
+  <si>
+    <t>Records/Documents - Signed ITP</t>
+  </si>
+  <si>
+    <t>2.1 - Setting Out</t>
+  </si>
+  <si>
+    <t>Resp. Person - SE</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.17, PSDR (section 9 a))</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The Nominated Authority will review and confirm the set out. The work shall be constructed in accordance with the confirmed set out to the line and level and cross-sectional profiles as shown on the IFC drawings.</t>
+  </si>
+  <si>
+    <t>Inspection/Verification (Name, signature &amp; date): Nominated Authority - HP</t>
+  </si>
+  <si>
+    <t>Inspection/Verification (Name, signature &amp; date): IREA - WP</t>
+  </si>
+  <si>
+    <t>• InEight Survey Report References:</t>
+  </si>
+  <si>
+    <t>• Photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 - Excavation and Foundation </t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - The Contractor shall box out to a sufficient depth to allow for the required compacted thickness of bedding material under the full width of concrete paving. Excavation not to extend more than 150mm from the adjacent face of existing pavement. </t>
+  </si>
+  <si>
+    <t>Test Frequency - PL</t>
+  </si>
+  <si>
+    <t>2.3 - Bedding materials and compaction</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 812.12 VR 703.21 IFC Drawings AS 3798</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Bedding material shall be compacted 20mm Class 3 or Class 4 Crushed Rock to 98% standards compaction unless shown otherwise on the drawings</t>
+  </si>
+  <si>
+    <t>• Material properties, testing and testing frequency shall be in accordance with section 812.12</t>
+  </si>
+  <si>
+    <t>Inspection/Verification (Name, signature &amp; date): Spark NEL Engineer - WR</t>
+  </si>
+  <si>
+    <t>Records/Documents - NATA Test Reports</t>
+  </si>
+  <si>
+    <t>2.4 - Bedding depths (compacted)</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.21 (a) (c) IFC Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - (a) Edgings: Where not constructed over pavement layers, bedding not less than 100 mm compacted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c) Footpaths and other Surfacing:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Bedding not less than 100 mm compacted. </t>
+  </si>
+  <si>
+    <t>• Bedding trimmed to appropriate levels, moistened as necessary, and firmly compacted.</t>
+  </si>
+  <si>
+    <t>Records/Documents - Material Delivery Docket</t>
+  </si>
+  <si>
+    <t>2.5 - Ambient weather for concreting</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.09, VR 610.17 (a)(b)(c) (d), VR 610.13</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Restrictions and treatments to be applied for concreting in hot, cold and wet weather.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The temperature of concrete, measured immediately prior to placing, shall not be less than 10˚C or greater than 32˚C. </t>
+  </si>
+  <si>
+    <t>• Ambient temperature not to be less than 5˚C and no more than 35˚C.</t>
+  </si>
+  <si>
+    <t>2.6 - Steel reinforcing grade and placement</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.13, VR 611 PSDR Part B Section 17.4</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 1/ Steel reinforcement shall comply with the relevant requirements of AS/NZS 4671</t>
+  </si>
+  <si>
+    <t>2/ Galvanising where specified shall be in accordance with the requirements of AS/NZS 4680</t>
+  </si>
+  <si>
+    <t>3/ Minimum cover shall be 50 mm unless shown on the drawings</t>
+  </si>
+  <si>
+    <t>4/ Concrete or plastic chairs to be used. Wire chairs (with or without plastic tips), bricks, pieces</t>
+  </si>
+  <si>
+    <t>Records/Documents - Reinforcement Steel Delivery Dockets</t>
+  </si>
+  <si>
+    <t>• Product Conformity Certificate</t>
+  </si>
+  <si>
+    <t>• QC Checklist</t>
+  </si>
+  <si>
+    <t>2.7 - Formwork</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.12 AS 3610.1 2018 (TableC2)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Construction and stripping of formwork shall comply with the relevant requirements of AS3610. Joints in formworks shall be constructed such that loss of mortar is prevented.</t>
+  </si>
+  <si>
+    <t>a). 2 days for vertical formwork on external surfaces and,</t>
+  </si>
+  <si>
+    <t>b). 1 day for vertical forms on permanently hidden surfaces.</t>
+  </si>
+  <si>
+    <t>• 2 days (Between 12˚C &amp; 20˚C).</t>
+  </si>
+  <si>
+    <t>• 1 day (&gt; 20 ˚C).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 3 days (Between 5˚C &amp; 12˚C). </t>
+  </si>
+  <si>
+    <t>○ Minimum time shall also not be less than:</t>
+  </si>
+  <si>
+    <t>○ Stripping of Formwork after casting shall not be less than:</t>
+  </si>
+  <si>
+    <t>2.8 - Concrete Placing, Compacting</t>
+  </si>
+  <si>
+    <t>Specification Reference - IFC Drawings AS 1379 VR 703.01 VR 703.08 VR 610.121 VR 703.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Concrete strength to comply with detail on IFC drawings and AS1379 </t>
+  </si>
+  <si>
+    <t>• Concrete shall be thoroughly compacted by means of continuous tamping and internal vibration and shall be worked around any embedment and into corners of formwork or excavations to produce a dense concrete free from voids.</t>
+  </si>
+  <si>
+    <t>• Workable concrete mixes are exempt from vibration requirement.</t>
+  </si>
+  <si>
+    <t>• Minimum testing requirements for aggregates to comply to VR Table 610.121 and VR 703.11</t>
+  </si>
+  <si>
+    <t>Test Frequency - X1</t>
+  </si>
+  <si>
+    <t>Records/Documents - NATA Test Result</t>
+  </si>
+  <si>
+    <t>• Delivery Docket</t>
+  </si>
+  <si>
+    <t>2.9 - Surface Finish</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.25 (a) (b) IFC Drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Footpaths, and other surfacings: Finish with a wooden float to produce a lightly textured non-skid surface. Compact with internal vibration and worked until mortar comes to the top. </t>
+  </si>
+  <si>
+    <t>• Edgings: All edgings shall be rendered and have a steel trowel finish. Rendering applied within 30 minutes of placing or extruding concrete. Thickness not exceeding 3 mm. Mortar shall be 2 parts fine aggregate, 1 part cement &amp; sufficient water to produce suitable consistency</t>
+  </si>
+  <si>
+    <t>• Surface finish to comply to VR 703.25. All discoloured concrete shall be cleaned or replaced.</t>
+  </si>
+  <si>
+    <t>2.10 - Jointing between concrete elements</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.26</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Transverse joints shall be constructed at right angles to the back of edgings and the edge of footpaths and shared use paths. Joints in footpaths and shared use paths shall align with joints in adjacent edgings.</t>
+  </si>
+  <si>
+    <t>a). Edgings</t>
+  </si>
+  <si>
+    <t>b). Footpaths, other Surfacing and Shared Use Paths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (i) Expansion Joints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (ii) Control Joints</t>
+  </si>
+  <si>
+    <t>(c) Details on de-bonding methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (ii) Expansion joints &amp; control joints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (i) Transverse joints &amp; expansion joints</t>
+  </si>
+  <si>
+    <t>• Sawcut or tooled joints shall be provided at maximum 2m centres to all footpaths or pedestrian paving. A 19mm expansion joint shall be provided where rigid pavements abut fixed structures or at max 15m centres to footpaths.</t>
+  </si>
+  <si>
+    <t>2.11 - Curing of concrete</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.10 (a), (b)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Exposed concrete surfaces shall commence curing treatment immediately after finishing operations are progressively completed and shall continue uninterrupted for a period of not less than 7 days</t>
+  </si>
+  <si>
+    <t>(a) General</t>
+  </si>
+  <si>
+    <t>(b) Geopolymer concrete</t>
+  </si>
+  <si>
+    <t>2.12 - Marking of Conduit Positions</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.28</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Existing conduits passing under edgings shall be marked by a chase in the edge immediately above the conduit together with a suitable identification mark.</t>
+  </si>
+  <si>
+    <t>Records/Documents - Photos</t>
+  </si>
+  <si>
+    <t>2.13 - Tolerances on line, level, and shape</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.15</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All surfaces shall be finished in conformity with the lines, grades, thicknesses and cross sections shown on the drawings or as specified, within the following limits:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Paving within 5mm </t>
+  </si>
+  <si>
+    <t>(b) Departure of finished work from line &amp; level shall not exceed 10mm at any point</t>
+  </si>
+  <si>
+    <t>(c) Section dimensions overall width shall not exceed &gt;15mm</t>
+  </si>
+  <si>
+    <t>(d) Median surfacing cross fall between 1% and 3% towards the edges</t>
+  </si>
+  <si>
+    <t>Records/Documents - Tick Off to confirm compliance as per the required acceptance criteria:</t>
+  </si>
+  <si>
+    <t>(d) Median Surface</t>
+  </si>
+  <si>
+    <t>(c) Dimension</t>
+  </si>
+  <si>
+    <t>(b) Finished work</t>
+  </si>
+  <si>
+    <t>(a) Paving</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>2.14 - Concrete repairs</t>
+  </si>
+  <si>
+    <t>Specification Reference - VR 703.08 VR 703.30 Crack Repair Procedure</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Any concrete repairs shall be carried out using a method and materials accepted by the Superintendent.</t>
+  </si>
+  <si>
+    <t>Records/Documents - Crack Repair Procedure</t>
+  </si>
+  <si>
+    <t>3.1 - Red-Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specification Reference - VR 703.15 IFC Drawings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Ensure As-Built survey is compared within the required tolerance to Design specification. </t>
+  </si>
+  <si>
+    <t>Records/Documents - Red-Line Mark-Up Drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Ensure all locations and work area highlighted as per Construction Lot in Work Lot Map. </t>
+  </si>
+  <si>
+    <t>3.2 - Final Inspection Site Walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Ensure at the end of each work conducted that Quality Control conduct an Inspection walk with Engineer to identify potential defects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Surveillance Report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Punch List Report </t>
+  </si>
+  <si>
+    <t>3.3 - RFI’s, DRFI’s &amp; DCN’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specification Reference - QMP DMP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Ensure all Design Change(s) are noted within the scope of the Construction Lot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Link all relevant RFI’s included only to the specific Construction Lot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Ensure RFI’s are closed out prior to Construction Lot close out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• RFI’s InEight Reference Form # </t>
+  </si>
+  <si>
+    <t>3.4 - NCR Close out</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All NCR’s presented for closure</t>
+  </si>
+  <si>
+    <t>Inspection/Verification (Name, signature &amp; date): Sub-Contractor - HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• NCR InEight Reference Form # </t>
+  </si>
+  <si>
+    <t>4.1 - Identification and control of non-conforming products or services (if applicable)</t>
+  </si>
+  <si>
+    <t>Resp. Person - QSR</t>
+  </si>
+  <si>
+    <t>Specification Reference - CQMP</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Review and confirm closure of NCR’s and associated RFI’s prior to closing of construction lot</t>
+  </si>
+  <si>
+    <t>Records/Documents - NCR closed with related documentation</t>
+  </si>
+  <si>
+    <t>4.2 - Check all quality records for lot closure</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All applicable quality records are complete</t>
+  </si>
+  <si>
+    <t>Records/Documents - Compiled documents (all data reports and records)</t>
   </si>
 </sst>
 </file>
@@ -243,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +898,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -600,12 +1065,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -961,10 +1430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1018,7 +1488,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1030,95 +1500,2815 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I353" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+        <filter val="section"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
